--- a/Part2-Q2-Sources.xlsx
+++ b/Part2-Q2-Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sainikhilkethireddy/Desktop/Classwork/Software Project Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/stephen_c_devaney_ttu_edu/Documents/Classes/Spring 2023/CS5363 Software Project Management/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93DF18BB-2C6D-4446-B769-556CD4162466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{93DF18BB-2C6D-4446-B769-556CD4162466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C47BE6-7A5F-4C1A-A973-824F43975996}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{102B0AC5-E931-6B4B-87FF-50665C6D47A7}"/>
+    <workbookView xWindow="-19320" yWindow="4470" windowWidth="19440" windowHeight="11040" xr2:uid="{102B0AC5-E931-6B4B-87FF-50665C6D47A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,20 +378,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -408,41 +399,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -460,10 +421,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -472,6 +451,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -790,196 +775,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9026A-C0B8-D04F-8662-7065823237F3}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="80.1640625" customWidth="1"/>
+    <col min="3" max="3" width="82.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="26" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="32" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="25" t="s">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="5"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{FCBEB77D-1539-BF44-A975-00B6BCFDF527}"/>

--- a/Part2-Q2-Sources.xlsx
+++ b/Part2-Q2-Sources.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/stephen_c_devaney_ttu_edu/Documents/Classes/Spring 2023/CS5363 Software Project Management/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{93DF18BB-2C6D-4446-B769-556CD4162466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C47BE6-7A5F-4C1A-A973-824F43975996}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E3CB4F-8FE3-485C-B330-F93FF08ADAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="4470" windowWidth="19440" windowHeight="11040" xr2:uid="{102B0AC5-E931-6B4B-87FF-50665C6D47A7}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{102B0AC5-E931-6B4B-87FF-50665C6D47A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Resource Estimates : Sources</t>
   </si>
@@ -141,13 +141,16 @@
   </si>
   <si>
     <t>https://www.security.org/insurance/cyber/cost/</t>
+  </si>
+  <si>
+    <t>Group 26: Stephen Devaney, Diane Renard, Randall Keur, Diego Salas Noain, Sai Nikhil Kethireddy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +181,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -378,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -425,24 +433,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -458,6 +448,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -773,11 +782,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9026A-C0B8-D04F-8662-7065823237F3}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -786,169 +793,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="8" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="9" t="s">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="20" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="13" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="7" t="s">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="7" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="20" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="19" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="12" t="s">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
@@ -956,34 +965,37 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FCBEB77D-1539-BF44-A975-00B6BCFDF527}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{829FA28C-FDA6-2849-B633-FB00B2B77EA4}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{49CDFA31-702A-2E41-880B-C0D65468BCEE}"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://www.indeed.com/career/graphic-designer/salaries" xr:uid="{7D88C47A-DA9D-FC46-9966-82B2667D389B}"/>
-    <hyperlink ref="C6" r:id="rId5" location="/addService/RDSMySQL" xr:uid="{461A80DE-B219-A347-ACDB-7E02426C029E}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{9F8E1CAE-60AF-0A45-9B85-2ACDD8C21811}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{B08BFAE6-2A8A-E545-8A1D-605CFAD2BF97}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{AE3DD892-E964-B446-8ECF-319571CB64F0}"/>
-    <hyperlink ref="C9" r:id="rId9" display="https://aws.amazon.com/s3/pricing/?p=pm&amp;c=s3&amp;z=4" xr:uid="{FC412B77-50DB-124A-A729-30161BC2A710}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{DB29ED96-80AF-AC4A-BCF9-D9ECD56EF1A0}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{708825B3-DC68-5D42-94EA-9E4409C8578E}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{15195A78-6901-8540-A3CF-EC034D32F6EB}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{25D1B2D6-E94A-1649-9D19-8DFBA4904624}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{2855AAAE-21AA-DA4E-A28C-CFC8C0F2224B}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{016DC43B-5F05-E14F-B5CF-DD68672487EE}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{3A6A2524-39A2-EC44-9E9A-4A5226CD097D}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{874D7D09-05B2-2A42-803B-0C03A970C9A8}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{FCBEB77D-1539-BF44-A975-00B6BCFDF527}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{829FA28C-FDA6-2849-B633-FB00B2B77EA4}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{49CDFA31-702A-2E41-880B-C0D65468BCEE}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://www.indeed.com/career/graphic-designer/salaries" xr:uid="{7D88C47A-DA9D-FC46-9966-82B2667D389B}"/>
+    <hyperlink ref="C7" r:id="rId5" location="/addService/RDSMySQL" xr:uid="{461A80DE-B219-A347-ACDB-7E02426C029E}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{9F8E1CAE-60AF-0A45-9B85-2ACDD8C21811}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{B08BFAE6-2A8A-E545-8A1D-605CFAD2BF97}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{AE3DD892-E964-B446-8ECF-319571CB64F0}"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://aws.amazon.com/s3/pricing/?p=pm&amp;c=s3&amp;z=4" xr:uid="{FC412B77-50DB-124A-A729-30161BC2A710}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{DB29ED96-80AF-AC4A-BCF9-D9ECD56EF1A0}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{708825B3-DC68-5D42-94EA-9E4409C8578E}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{15195A78-6901-8540-A3CF-EC034D32F6EB}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{25D1B2D6-E94A-1649-9D19-8DFBA4904624}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{2855AAAE-21AA-DA4E-A28C-CFC8C0F2224B}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{016DC43B-5F05-E14F-B5CF-DD68672487EE}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{3A6A2524-39A2-EC44-9E9A-4A5226CD097D}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{874D7D09-05B2-2A42-803B-0C03A970C9A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
